--- a/Imag/clayton/resultados.xlsx
+++ b/Imag/clayton/resultados.xlsx
@@ -490,31 +490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03010271283807452</v>
+        <v>0.1038553948360505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07745935531443418</v>
+        <v>1.249232811991643</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3117851622889096</v>
+        <v>0.4494594461630708</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(3.963677275416786,)</t>
+          <t>(3.4063286548189353,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(3.963677275416786, 0.07745935531443418, 0.3117851622889096)</t>
+          <t>(3.4063286548189353, 1.249232811991643, 0.4494594461630708)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CECDBE20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A05070400&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +529,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0301028271148215</v>
+        <v>0.1129868726773204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07768238953917103</v>
+        <v>1.270445583756481</v>
       </c>
       <c r="D3" t="n">
-        <v>3302.7351181437</v>
+        <v>0.484276513550485</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(3.9601354302112703, 10581.37584679684)</t>
+          <t>(1.0906559129175406,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(3.9601354302112703, 10581.37584679684, 0.07768238953917103, 3302.7351181436998)</t>
+          <t>(1.0906559129175406, 1.270445583756481, 0.48427651355048495)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CECDB790&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A2260&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -572,27 +572,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03262077770969828</v>
+        <v>0.1193135182932523</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3667716921161254</v>
+        <v>-0.5507582850610998</v>
       </c>
       <c r="D4" t="n">
-        <v>1.574467301884547</v>
+        <v>1.779454414278116</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.36117579989925114,)</t>
+          <t>(0.331686785974545,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.36117579989925114, -0.3667716921161254, 1.574467301884547)</t>
+          <t>(0.331686785974545, -0.5507582850610998, 1.779454414278116)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CECDB040&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A0700&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -611,27 +611,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03527125242158601</v>
+        <v>0.1196174097455874</v>
       </c>
       <c r="C5" t="n">
-        <v>1.030734736265575</v>
+        <v>1.04207058905765</v>
       </c>
       <c r="D5" t="n">
-        <v>0.48444119009516</v>
+        <v>0.5065333538967268</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(-0.004897275263384716,)</t>
+          <t>(0.007753780825161871,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(-0.004897275263384716, 1.030734736265575, 0.48444119009515996)</t>
+          <t>(0.007753780825161871, 1.0420705890576505, 0.5065333538967268)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CECD9120&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A1210&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -646,31 +646,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1584262064767318</v>
+        <v>0.1242925717157587</v>
       </c>
       <c r="C6" t="n">
-        <v>1.222341308010181</v>
+        <v>-0.03540771019376761</v>
       </c>
       <c r="D6" t="n">
-        <v>0.50743475138432</v>
+        <v>0.2987996372380929</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.2038988756404398,)</t>
+          <t>(4.5686969063713025,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.2038988756404398, 1.2223413080101815, 0.50743475138432)</t>
+          <t>(4.5686969063713025, -0.03540771019376761, 0.2987996372380929)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CECD9D80&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0337F370&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +685,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1830265055738788</v>
+        <v>0.1243364872781343</v>
       </c>
       <c r="C7" t="n">
-        <v>1.31327519225325</v>
+        <v>-0.0343927544230902</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6208551080716249</v>
+        <v>49080.73793656088</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(4.560508407838446, 164082.8737445831)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.3132751922532502, 0.6208551080716249)</t>
+          <t>(4.560508407838446, 164082.8737445831, -0.0343927544230902, 49080.73793656088)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CECD93C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A3490&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -724,31 +724,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1933479110586125</v>
+        <v>0.1932540295044849</v>
       </c>
       <c r="C8" t="n">
-        <v>-176.1415925230548</v>
+        <v>1.329717022080623</v>
       </c>
       <c r="D8" t="n">
-        <v>24.38618040004582</v>
+        <v>0.6470094984607161</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(1446.8743905720557,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1446.8743905720557, -176.14159252305478, 24.386180400045816)</t>
+          <t>(1.329717022080623, 0.6470094984607161)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CECD96C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A05070730&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -763,31 +763,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2081580169631594</v>
+        <v>0.1971376040586216</v>
       </c>
       <c r="C9" t="n">
-        <v>1.328260484701137</v>
+        <v>-236.7789260327372</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6092200141257786</v>
+        <v>30.87910857456295</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(15.756596260132142,)</t>
+          <t>(2232.983996733037,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(15.756596260132142, 1.3282604847011366, 0.6092200141257786)</t>
+          <t>(2232.983996733037, -236.77892603273722, 30.87910857456295)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CECD9D20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0337F460&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -802,31 +802,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.313817132644852</v>
+        <v>0.6939181655672476</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1831241286755183</v>
+        <v>-134217727.7278555</v>
       </c>
       <c r="D10" t="n">
-        <v>1.130151063577732</v>
+        <v>134217728</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(126911132.33928743,)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.1831241286755183, 1.1301510635777319)</t>
+          <t>(126911132.33928743, -134217727.72785552, 134217728.0)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CECDA1D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A2D40&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -841,31 +841,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.313817151571102</v>
+        <v>0.6939181660418907</v>
       </c>
       <c r="C11" t="n">
-        <v>-67108863.81687587</v>
+        <v>0.2721444832024972</v>
       </c>
       <c r="D11" t="n">
-        <v>67108864</v>
+        <v>1.057572538878126</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(59380437.43070598,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(59380437.43070598, -67108863.816875875, 67108864.0)</t>
+          <t>(0.27214448320249723, 1.0575725388781256)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CECDA950&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A0CA0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.726602587370867</v>
+        <v>0.8150244442177998</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1831241286755183</v>
+        <v>0.2721444832024972</v>
       </c>
       <c r="D12" t="n">
-        <v>4.272134650377065</v>
+        <v>3.251234024680602</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.1831241286755183, 4.272134650377065)</t>
+          <t>(0.27214448320249723, 3.251234024680602)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CECD9840&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0337CE80&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -990,31 +990,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05341030771260628</v>
+        <v>0.06438281679594704</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6310849334900465</v>
+        <v>0.005625857754059211</v>
       </c>
       <c r="D2" t="n">
-        <v>2.050190836406329</v>
+        <v>30523.06719331679</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.31577026496171745,)</t>
+          <t>(3.564775776798638, 72483.44935344686)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.31577026496171745, -0.6310849334900465, 2.0501908364063293)</t>
+          <t>(3.564775776798638, 72483.44935344686, 0.005625857754059211, 30523.06719331679)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E31B7CA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C2290&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +1029,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05681009780085695</v>
+        <v>0.06452344816823755</v>
       </c>
       <c r="C3" t="n">
-        <v>1.208950763210237</v>
+        <v>0.007970620195589022</v>
       </c>
       <c r="D3" t="n">
-        <v>0.556942488637719</v>
+        <v>0.4243160559638169</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.003784625895717064,)</t>
+          <t>(3.536084919915146,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.003784625895717064, 1.2089507632102374, 0.556942488637719)</t>
+          <t>(3.536084919915146, 0.007970620195589022, 0.42431605596381694)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E31B6EC0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C1D80&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +1068,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05694906524338673</v>
+        <v>0.0688784126355656</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09188934718039381</v>
+        <v>-0.3596355159257411</v>
       </c>
       <c r="D4" t="n">
-        <v>25.62894114291023</v>
+        <v>1.709970303361919</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(5.110104682012432, 75.8367934596744)</t>
+          <t>(0.4190299240149529,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(5.110104682012432, 75.8367934596744, -0.09188934718039381, 25.62894114291023)</t>
+          <t>(0.4190299240149529, -0.3596355159257411, 1.709970303361919)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E31B7C70&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C3910&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +1107,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05711960627498711</v>
+        <v>0.07268980543744842</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1024090721712648</v>
+        <v>1.127400567312232</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2954489607195265</v>
+        <v>0.5884816388669754</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(5.508199033951174,)</t>
+          <t>(-0.06732420690791016,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(5.508199033951174, -0.10240907217126477, 0.29544896071952653)</t>
+          <t>(-0.06732420690791016, 1.127400567312232, 0.5884816388669754)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E31B7B20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C0A90&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1150,27 +1150,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08927684317809213</v>
+        <v>0.07512122071025125</v>
       </c>
       <c r="C6" t="n">
-        <v>1.45090686398138</v>
+        <v>1.385906074359238</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5435457789830982</v>
+        <v>0.5790963828254381</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(4.889955182642595,)</t>
+          <t>(3.728448612732464,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(4.889955182642595, 1.4509068639813796, 0.5435457789830982)</t>
+          <t>(3.728448612732464, 1.3859060743592382, 0.5790963828254381)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E31B6620&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCF490&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1189,27 +1189,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0955861041719122</v>
+        <v>0.07677144947702483</v>
       </c>
       <c r="C7" t="n">
-        <v>1.48464538501209</v>
+        <v>1.422349599542602</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5594210955374626</v>
+        <v>0.6204299967044684</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.1753449188468865,)</t>
+          <t>(1.1104430619911012,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.1753449188468865, 1.4846453850120898, 0.5594210955374626)</t>
+          <t>(1.1104430619911012, 1.4223495995426023, 0.6204299967044684)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E31B6C80&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCEE90&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1519124567166061</v>
+        <v>0.1221148870161234</v>
       </c>
       <c r="C8" t="n">
-        <v>1.524980390606305</v>
+        <v>1.508386018712386</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7177164065269777</v>
+        <v>0.8318072194798893</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1243,12 +1243,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.524980390606305, 0.7177164065269777)</t>
+          <t>(1.5083860187123863, 0.8318072194798893)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E31B64A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038F0F40&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1267,27 +1267,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1720079384094053</v>
+        <v>0.125121272107777</v>
       </c>
       <c r="C9" t="n">
-        <v>-216.6368481505254</v>
+        <v>-307.8029886015697</v>
       </c>
       <c r="D9" t="n">
-        <v>29.59019691772144</v>
+        <v>40.054903397884</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1592.5189470691985,)</t>
+          <t>(2258.1811890525087,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1592.5189470691985, -216.63684815052542, 29.590196917721443)</t>
+          <t>(2258.1811890525087, -307.8029886015697, 40.054903397884004)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E31B7490&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C1180&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1302,31 +1302,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.411432720895565</v>
+        <v>0.4226370666070528</v>
       </c>
       <c r="C10" t="n">
-        <v>-134217727.868518</v>
+        <v>0.1550770190511583</v>
       </c>
       <c r="D10" t="n">
-        <v>134217728</v>
+        <v>1.353308999661228</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(96317101.92973815,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(96317101.92973815, -134217727.86851802, 134217727.99999999)</t>
+          <t>(0.1550770190511583, 1.353308999661228)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E31B7A90&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C24A0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +1341,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.411432724822098</v>
+        <v>0.4226370780433669</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1314819721025025</v>
+        <v>-67108863.84492298</v>
       </c>
       <c r="D11" t="n">
-        <v>1.393498418503803</v>
+        <v>67108864</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(49588722.79134712,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.13148197210250248, 1.3934984185038026)</t>
+          <t>(49588722.79134712, -67108863.84492298, 67108864.0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E31B6AA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCECB0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.93176913429619</v>
+        <v>0.5461042906838897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1314819721025025</v>
+        <v>0.1550770190511583</v>
       </c>
       <c r="D12" t="n">
-        <v>6.902012711275379</v>
+        <v>4.601379767006701</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.13148197210250248, 6.902012711275379)</t>
+          <t>(0.1550770190511583, 4.601379767006701)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E31B74C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C1690&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1490,31 +1490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09578443389232291</v>
+        <v>0.02244403858793886</v>
       </c>
       <c r="C2" t="n">
-        <v>1.063656782880126</v>
+        <v>0.1310639679778514</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7052074042539631</v>
+        <v>3.779586370349851</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.02873106763288601,)</t>
+          <t>(1.0480460794824953, 2.0466632553093094)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.02873106763288601, 1.0636567828801264, 0.7052074042539631)</t>
+          <t>(1.0480460794824953, 2.0466632553093094, 0.13106396797785141, 3.7795863703498513)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E330D900&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E2980&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1530,31 +1530,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09752700800574601</v>
+        <v>0.031622155100961</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.068959264783158</v>
+        <v>-0.0964339010348732</v>
       </c>
       <c r="D3" t="n">
-        <v>2.381237806562349</v>
+        <v>0.5500750417392439</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.34106637584581506,)</t>
+          <t>(2.767738571516226,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.34106637584581506, -1.068959264783158, 2.381237806562349)</t>
+          <t>(2.767738571516226, -0.0964339010348732, 0.5500750417392439)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E32F2560&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E1690&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1570,31 +1570,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1023608066450924</v>
+        <v>0.03765039771511523</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1833007704948799</v>
+        <v>-1.260926476539656</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4926274794103888</v>
+        <v>2.556709383143872</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(3.32220681670998,)</t>
+          <t>(0.31770740665130837,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(3.32220681670998, -0.18330077049487986, 0.49262747941038876)</t>
+          <t>(0.31770740665130837, -1.2609264765396564, 2.556709383143872)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9CED56EC0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E3070&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1610,31 +1610,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.102362289429018</v>
+        <v>0.03918148011262694</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1832811951626351</v>
+        <v>1.057117519377409</v>
       </c>
       <c r="D5" t="n">
-        <v>44406549.97088932</v>
+        <v>0.7226895149613797</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(3.3221174843437278, 90140819.40351939)</t>
+          <t>(0.08257158165296477,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(3.3221174843437278, 90140819.40351939, -0.18328119516263514, 44406549.97088932)</t>
+          <t>(0.08257158165296477, 1.057117519377409, 0.7226895149613797)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E32CDD50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E0EB0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1650,31 +1650,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1191133607005672</v>
+        <v>0.05686332983562192</v>
       </c>
       <c r="C6" t="n">
-        <v>1.411908814864265</v>
+        <v>1.426029665639175</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7880055389819456</v>
+        <v>0.8442808237418905</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(11.997222565139683,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(11.997222565139683, 1.4119088148642647, 0.7880055389819456)</t>
+          <t>(1.4260296656391747, 0.8442808237418905)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E330FEB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A02A94550&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1690,31 +1690,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1238633159279951</v>
+        <v>0.05686335519827176</v>
       </c>
       <c r="C7" t="n">
-        <v>1.42851527195486</v>
+        <v>1.426029773944828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7280327221279628</v>
+        <v>0.8442808002472157</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.2484012514315777,)</t>
+          <t>(1615468115059.4219,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.2484012514315777, 1.4285152719548604, 0.7280327221279628)</t>
+          <t>(1615468115059.4219, 1.426029773944828, 0.8442808002472157)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E330EAD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E0AC0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1734,27 +1734,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1242851761279802</v>
+        <v>0.05727269591086644</v>
       </c>
       <c r="C8" t="n">
-        <v>-337.3393883474222</v>
+        <v>-227.0369116384761</v>
       </c>
       <c r="D8" t="n">
-        <v>43.54144498899235</v>
+        <v>31.63320351981019</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(2394.732409960343,)</t>
+          <t>(1370.1400768309027,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(2394.732409960343, -337.3393883474222, 43.54144498899235)</t>
+          <t>(1370.1400768309027, -227.0369116384761, 31.633203519810188)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E32CE590&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E19F0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1770,31 +1770,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1247377100760021</v>
+        <v>0.06722135383307121</v>
       </c>
       <c r="C9" t="n">
-        <v>1.453311090851146</v>
+        <v>1.379828022499577</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8655606128648221</v>
+        <v>0.7424765455176647</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1.3291903787910513,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1.4533110908511462, 0.8655606128648221)</t>
+          <t>(1.3291903787910513, 1.3798280224995767, 0.7424765455176647)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E330DA80&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E21D0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4854573952821318</v>
+        <v>0.1186553075268594</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02309725822638578</v>
+        <v>0.1322017835802066</v>
       </c>
       <c r="D10" t="n">
-        <v>1.43021383262476</v>
+        <v>1.293827882058968</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1829,12 +1829,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.02309725822638578, 1.4302138326247604)</t>
+          <t>(0.13220178358020657, 1.2938278820589681)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E330E110&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A02A94310&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1854,27 +1854,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4854573988243879</v>
+        <v>0.1186553091045419</v>
       </c>
       <c r="C11" t="n">
-        <v>-134217727.9769027</v>
+        <v>-268435455.8677982</v>
       </c>
       <c r="D11" t="n">
-        <v>134217728</v>
+        <v>268435456</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(93844519.10204199,)</t>
+          <t>(207473855.25753185,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(93844519.10204199, -134217727.97690274, 134217727.99999999)</t>
+          <t>(207473855.25753185, -268435455.8677982, 268435455.99999997)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E330E140&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E13C0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9032266707168273</v>
+        <v>0.1663657274648163</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02309725822638578</v>
+        <v>0.1322017835802066</v>
       </c>
       <c r="D12" t="n">
-        <v>6.205454629062951</v>
+        <v>3.608810845493813</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,12 +1909,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.02309725822638578, 6.205454629062951)</t>
+          <t>(0.13220178358020657, 3.6088108454938133)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001C9E32CEA40&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050BEFB0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">

--- a/Imag/clayton/resultados.xlsx
+++ b/Imag/clayton/resultados.xlsx
@@ -490,31 +490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1038553948360505</v>
+        <v>0.04277156155560126</v>
       </c>
       <c r="C2" t="n">
-        <v>1.249232811991643</v>
+        <v>0.3987851687468036</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4494594461630708</v>
+        <v>0.8493882342211475</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(3.4063286548189353,)</t>
+          <t>(0.48944991584796343,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(3.4063286548189353, 1.249232811991643, 0.4494594461630708)</t>
+          <t>(0.48944991584796343, 0.3987851687468036, 0.8493882342211475)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A05070400&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EF880&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +529,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1129868726773204</v>
+        <v>0.05655005338631303</v>
       </c>
       <c r="C3" t="n">
-        <v>1.270445583756481</v>
+        <v>1.121137848624331</v>
       </c>
       <c r="D3" t="n">
-        <v>0.484276513550485</v>
+        <v>0.3313445121280513</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(1.0906559129175406,)</t>
+          <t>(-0.12034609580380265,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(1.0906559129175406, 1.270445583756481, 0.48427651355048495)</t>
+          <t>(-0.12034609580380265, 1.1211378486243313, 0.33134451212805127)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A2260&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EE560&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +568,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1193135182932523</v>
+        <v>0.06452162907086584</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5507582850610998</v>
+        <v>0.5478993533070802</v>
       </c>
       <c r="D4" t="n">
-        <v>1.779454414278116</v>
+        <v>7259.550838653747</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.331686785974545,)</t>
+          <t>(2.9324925992232043, 26364.380850254056)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.331686785974545, -0.5507582850610998, 1.779454414278116)</t>
+          <t>(2.9324925992232043, 26364.380850254056, 0.5478993533070802, 7259.550838653747)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A0700&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EDEA0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +607,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1196174097455874</v>
+        <v>0.06535373183192865</v>
       </c>
       <c r="C5" t="n">
-        <v>1.04207058905765</v>
+        <v>0.5486783178706056</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5065333538967268</v>
+        <v>0.2773800288629298</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.007753780825161871,)</t>
+          <t>(2.9099616168654174,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.007753780825161871, 1.0420705890576505, 0.5065333538967268)</t>
+          <t>(2.9099616168654174, 0.5486783178706056, 0.2773800288629298)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A1210&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EF430&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -646,31 +646,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1242925717157587</v>
+        <v>0.4126126497035607</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03540771019376761</v>
+        <v>1.258890715136014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2987996372380929</v>
+        <v>0.3760220410393624</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(4.5686969063713025,)</t>
+          <t>(1.1145205663888875,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(4.5686969063713025, -0.03540771019376761, 0.2987996372380929)</t>
+          <t>(1.1145205663888875, 1.258890715136014, 0.37602204103936243)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0337F370&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EEF20&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +685,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1243364872781343</v>
+        <v>0.5605654206956788</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0343927544230902</v>
+        <v>1.29535947529783</v>
       </c>
       <c r="D7" t="n">
-        <v>49080.73793656088</v>
+        <v>0.3439735836692768</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(4.560508407838446, 164082.8737445831)</t>
+          <t>(3.571243237025139,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(4.560508407838446, 164082.8737445831, -0.0343927544230902, 49080.73793656088)</t>
+          <t>(3.571243237025139, 1.2953594752978297, 0.3439735836692768)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A3490&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EFA30&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1932540295044849</v>
+        <v>0.714541808238913</v>
       </c>
       <c r="C8" t="n">
-        <v>1.329717022080623</v>
+        <v>1.355847090066259</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6470094984607161</v>
+        <v>0.4919887748666836</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -743,12 +743,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.329717022080623, 0.6470094984607161)</t>
+          <t>(1.355847090066259, 0.49198877486668363)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A05070730&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EDCF0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -767,27 +767,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1971376040586216</v>
+        <v>0.7521210793444062</v>
       </c>
       <c r="C9" t="n">
-        <v>-236.7789260327372</v>
+        <v>-162.4479798312013</v>
       </c>
       <c r="D9" t="n">
-        <v>30.87910857456295</v>
+        <v>21.79874250691653</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(2232.983996733037,)</t>
+          <t>(1834.6276311328575,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(2232.983996733037, -236.77892603273722, 30.87910857456295)</t>
+          <t>(1834.6276311328575, -162.44797983120134, 21.798742506916533)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0337F460&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EF520&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -802,31 +802,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6939181655672476</v>
+        <v>2.340904741989452</v>
       </c>
       <c r="C10" t="n">
-        <v>-134217727.7278555</v>
+        <v>0.5662893325636027</v>
       </c>
       <c r="D10" t="n">
-        <v>134217728</v>
+        <v>0.7895577575026562</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(126911132.33928743,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(126911132.33928743, -134217727.72785552, 134217728.0)</t>
+          <t>(0.5662893325636027, 0.7895577575026562)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A2D40&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EE380&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -841,31 +841,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6939181660418907</v>
+        <v>2.34090479574115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2721444832024972</v>
+        <v>-33554431.43371067</v>
       </c>
       <c r="D11" t="n">
-        <v>1.057572538878126</v>
+        <v>33554432</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(42497755.47640594,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.27214448320249723, 1.0575725388781256)</t>
+          <t>(42497755.47640594, -33554431.43371067, 33554432.0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A0CA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EF310&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8150244442177998</v>
+        <v>3.740049324693542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2721444832024972</v>
+        <v>0.5662893325636027</v>
       </c>
       <c r="D12" t="n">
-        <v>3.251234024680602</v>
+        <v>3.420105036508835</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.27214448320249723, 3.251234024680602)</t>
+          <t>(0.5662893325636027, 3.4201050365088355)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0337CE80&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EFDC0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -990,31 +990,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06438281679594704</v>
+        <v>0.01441979254017743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005625857754059211</v>
+        <v>1.66246767788381</v>
       </c>
       <c r="D2" t="n">
-        <v>30523.06719331679</v>
+        <v>0.5323247268512059</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(3.564775776798638, 72483.44935344686)</t>
+          <t>(0.08283967216330779,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(3.564775776798638, 72483.44935344686, 0.005625857754059211, 30523.06719331679)</t>
+          <t>(0.08283967216330779, 1.6624676778838097, 0.5323247268512059)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C2290&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED00A0&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +1029,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06452344816823755</v>
+        <v>0.01486125327347862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007970620195589022</v>
+        <v>-0.5728020687884418</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4243160559638169</v>
+        <v>2.428661378881663</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(3.536084919915146,)</t>
+          <t>(0.24508998509783672,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(3.536084919915146, 0.007970620195589022, 0.42431605596381694)</t>
+          <t>(0.24508998509783672, -0.5728020687884418, 2.4286613788816633)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C1D80&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519AF280&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +1068,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0688784126355656</v>
+        <v>0.01657021429743059</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3596355159257411</v>
+        <v>0.1637190322288076</v>
       </c>
       <c r="D4" t="n">
-        <v>1.709970303361919</v>
+        <v>0.2182072627643815</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.4190299240149529,)</t>
+          <t>(8.093586006455062,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.4190299240149529, -0.3596355159257411, 1.709970303361919)</t>
+          <t>(8.093586006455062, 0.16371903222880763, 0.21820726276438146)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C3910&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED21D0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +1107,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07268980543744842</v>
+        <v>0.01702609742036463</v>
       </c>
       <c r="C5" t="n">
-        <v>1.127400567312232</v>
+        <v>0.2024842421270472</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5884816388669754</v>
+        <v>52.76865471154208</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(-0.06732420690791016,)</t>
+          <t>(7.465778237348179, 220.6103302566314)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(-0.06732420690791016, 1.127400567312232, 0.5884816388669754)</t>
+          <t>(7.465778237348179, 220.6103302566314, 0.20248424212704724, 52.768654711542084)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C0A90&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED1810&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1150,27 +1150,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07512122071025125</v>
+        <v>0.08795625053167797</v>
       </c>
       <c r="C6" t="n">
-        <v>1.385906074359238</v>
+        <v>1.905485058143077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5790963828254381</v>
+        <v>0.5730169848898512</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(3.728448612732464,)</t>
+          <t>(13.58740970098124,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(3.728448612732464, 1.3859060743592382, 0.5790963828254381)</t>
+          <t>(13.58740970098124, 1.9054850581430767, 0.5730169848898512)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCF490&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED1B70&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,31 +1185,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07677144947702483</v>
+        <v>0.110461598198169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.422349599542602</v>
+        <v>1.929798200697873</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6204299967044684</v>
+        <v>0.620398067361263</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.1104430619911012,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.1104430619911012, 1.4223495995426023, 0.6204299967044684)</t>
+          <t>(1.9297982006978731, 0.620398067361263)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCEE90&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EEF50&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +1224,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1221148870161234</v>
+        <v>0.1206569273291194</v>
       </c>
       <c r="C8" t="n">
-        <v>1.508386018712386</v>
+        <v>-189.9395684766214</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8318072194798893</v>
+        <v>25.80032628632832</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1697.8857409488016,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.5083860187123863, 0.8318072194798893)</t>
+          <t>(1697.8857409488016, -189.93956847662145, 25.80032628632832)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038F0F40&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED1750&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,31 +1263,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.125121272107777</v>
+        <v>0.1333047323846259</v>
       </c>
       <c r="C9" t="n">
-        <v>-307.8029886015697</v>
+        <v>1.898898759674947</v>
       </c>
       <c r="D9" t="n">
-        <v>40.054903397884</v>
+        <v>0.5161852779043776</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(2258.1811890525087,)</t>
+          <t>(1.2151747932344412,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(2258.1811890525087, -307.8029886015697, 40.054903397884004)</t>
+          <t>(1.2151747932344412, 1.8988987596749474, 0.5161852779043776)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C1180&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265E57E50&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1302,17 +1302,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4226370666070528</v>
+        <v>1.559312416579798</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1550770190511583</v>
+        <v>0.5705270425810238</v>
       </c>
       <c r="D10" t="n">
-        <v>1.353308999661228</v>
+        <v>4.246353803530516</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.1550770190511583, 1.353308999661228)</t>
+          <t>(0.5705270425810238, 4.246353803530516)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C24A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED1990&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +1341,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4226370780433669</v>
+        <v>1.592383970355136</v>
       </c>
       <c r="C11" t="n">
-        <v>-67108863.84492298</v>
+        <v>0.5705270425810238</v>
       </c>
       <c r="D11" t="n">
-        <v>67108864</v>
+        <v>1.359271158116849</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(49588722.79134712,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(49588722.79134712, -67108863.84492298, 67108864.0)</t>
+          <t>(0.5705270425810238, 1.3592711581168493)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCECB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265E57C40&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1380,31 +1380,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5461042906838897</v>
+        <v>1.592383977461529</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1550770190511583</v>
+        <v>-134217727.429473</v>
       </c>
       <c r="D12" t="n">
-        <v>4.601379767006701</v>
+        <v>134217728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(98742424.15823759,)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.1550770190511583, 4.601379767006701)</t>
+          <t>(98742424.15823759, -134217727.42947295, 134217727.99999999)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A038C1690&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EE980&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1494,27 +1494,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02244403858793886</v>
+        <v>0.06031099908761835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1310639679778514</v>
+        <v>0.3702468717950995</v>
       </c>
       <c r="D2" t="n">
-        <v>3.779586370349851</v>
+        <v>12.09880781166575</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(1.0480460794824953, 2.0466632553093094)</t>
+          <t>(3.0696341523923873, 18.03174805535624)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(1.0480460794824953, 2.0466632553093094, 0.13106396797785141, 3.7795863703498513)</t>
+          <t>(3.0696341523923873, 18.03174805535624, 0.3702468717950995, 12.098807811665747)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E2980&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603E3E0&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1534,27 +1534,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.031622155100961</v>
+        <v>0.06434909761360254</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0964339010348732</v>
+        <v>0.2490876161784235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5500750417392439</v>
+        <v>0.4488506853752563</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(2.767738571516226,)</t>
+          <t>(4.191395680815244,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(2.767738571516226, -0.0964339010348732, 0.5500750417392439)</t>
+          <t>(4.191395680815244, 0.2490876161784235, 0.4488506853752563)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E1690&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603C100&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1574,27 +1574,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03765039771511523</v>
+        <v>0.06617459194526396</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.260926476539656</v>
+        <v>-0.5765556195680427</v>
       </c>
       <c r="D4" t="n">
-        <v>2.556709383143872</v>
+        <v>2.563881028854636</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.31770740665130837,)</t>
+          <t>(0.3308192542769732,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.31770740665130837, -1.2609264765396564, 2.556709383143872)</t>
+          <t>(0.3308192542769732, -0.5765556195680427, 2.5638810288546363)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E3070&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603C0D0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1614,27 +1614,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03918148011262694</v>
+        <v>0.06629061256086759</v>
       </c>
       <c r="C5" t="n">
-        <v>1.057117519377409</v>
+        <v>1.72426268279082</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7226895149613797</v>
+        <v>0.7361793734904614</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.08257158165296477,)</t>
+          <t>(0.029444838682095208,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.08257158165296477, 1.057117519377409, 0.7226895149613797)</t>
+          <t>(0.029444838682095208, 1.7242626827908198, 0.7361793734904614)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E0EB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603E020&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1650,31 +1650,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05686332983562192</v>
+        <v>0.07771501503093088</v>
       </c>
       <c r="C6" t="n">
-        <v>1.426029665639175</v>
+        <v>2.081854932486675</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8442808237418905</v>
+        <v>0.768089005978486</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1.2851081470403316,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.4260296656391747, 0.8442808237418905)</t>
+          <t>(1.2851081470403316, 2.0818549324866753, 0.768089005978486)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A02A94550&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603C220&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1694,27 +1694,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05686335519827176</v>
+        <v>0.08777111843629594</v>
       </c>
       <c r="C7" t="n">
-        <v>1.426029773944828</v>
+        <v>2.078517278176234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8442808002472157</v>
+        <v>0.8089017520843224</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1615468115059.4219,)</t>
+          <t>(9.99551727604428,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1615468115059.4219, 1.426029773944828, 0.8442808002472157)</t>
+          <t>(9.99551727604428, 2.0785172781762338, 0.8089017520843224)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E0AC0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603DA20&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1730,31 +1730,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05727269591086644</v>
+        <v>0.09472534801725532</v>
       </c>
       <c r="C8" t="n">
-        <v>-227.0369116384761</v>
+        <v>2.130398227647176</v>
       </c>
       <c r="D8" t="n">
-        <v>31.63320351981019</v>
+        <v>0.9049766095068721</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(1370.1400768309027,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1370.1400768309027, -227.0369116384761, 31.633203519810188)</t>
+          <t>(2.1303982276471762, 0.9049766095068721)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E19F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603E440&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1770,31 +1770,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06722135383307121</v>
+        <v>0.09923467725215022</v>
       </c>
       <c r="C9" t="n">
-        <v>1.379828022499577</v>
+        <v>-243.2966342862283</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7424765455176647</v>
+        <v>34.05326278293694</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1.3291903787910513,)</t>
+          <t>(1349.66584617045,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1.3291903787910513, 1.3798280224995767, 0.7424765455176647)</t>
+          <t>(1349.66584617045, -243.29663428622825, 34.05326278293694)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E21D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265FB71C0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1810,31 +1810,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1186553075268594</v>
+        <v>0.6498388308334304</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1322017835802066</v>
+        <v>-268435455.5583779</v>
       </c>
       <c r="D10" t="n">
-        <v>1.293827882058968</v>
+        <v>268435456</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(158952660.4568313,)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.13220178358020657, 1.2938278820589681)</t>
+          <t>(158952660.4568313, -268435455.5583779, 268435455.99999997)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A02A94310&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603CF70&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1850,31 +1850,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1186553091045419</v>
+        <v>0.6498388374534155</v>
       </c>
       <c r="C11" t="n">
-        <v>-268435455.8677982</v>
+        <v>0.4416221041403858</v>
       </c>
       <c r="D11" t="n">
-        <v>268435456</v>
+        <v>1.68877612350679</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(207473855.25753185,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(207473855.25753185, -268435455.8677982, 268435455.99999997)</t>
+          <t>(0.44162210414038583, 1.6887761235067904)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050E13C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603DF30&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1663657274648163</v>
+        <v>0.7379464968720317</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1322017835802066</v>
+        <v>0.4416221041403858</v>
       </c>
       <c r="D12" t="n">
-        <v>3.608810845493813</v>
+        <v>5.599001466796573</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,12 +1909,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.13220178358020657, 3.6088108454938133)</t>
+          <t>(0.44162210414038583, 5.599001466796573)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A050BEFB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603D150&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">

--- a/Imag/clayton/resultados.xlsx
+++ b/Imag/clayton/resultados.xlsx
@@ -7,9 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="weak" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="moderate" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="strong" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="50_weak" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="50_moderate" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="50_strong" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="100_weak" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="100_moderate" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="100_strong" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="500_weak" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="500_moderate" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="500_strong" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="1000_weak" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="1000_moderate" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="1000_strong" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,6 +499,506 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03675916014278498</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3908800317782084</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3431901188780552</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(3.3164174061126293,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(3.3164174061126293, 0.3908800317782084, 0.3431901188780552)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E090E3B0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03801149362893724</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.133832417842298</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.265948574102664</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.44292362539348795,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.44292362539348795, 0.133832417842298, 1.2659485741026641)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E090FC70&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05210231418426413</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.227994639928679</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4589841532496821</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(-0.07409891717564876,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(-0.07409891717564876, 1.2279946399286787, 0.45898415324968206)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5E9660&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1190110452135092</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.02756518291014853</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.44961261631982</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(5.6538993647799956, 32.21528860046807)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(5.6538993647799956, 32.21528860046807, -0.02756518291014853, 10.449612616319818)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E090E7D0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2044863147643035</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.433448947296065</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5200797616571486</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.2257154814796571,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.2257154814796571, 1.4334489472960654, 0.5200797616571486)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF725CF0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2517741159889226</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.459378072329644</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5245562363324463</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(6.3229486211704815,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(6.3229486211704815, 1.4593780723296441, 0.5245562363324463)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF7263E0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3248329707090511</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.529041103208094</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6347832350647545</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.5290411032080937, 0.6347832350647545)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF7253C0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3269577549783574</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-218.2879343012119</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.83490061821924</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2045.468892310916,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2045.468892310916, -218.28793430121186, 28.834900618219237)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E090FE20&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.321220839194784</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4359357432850148</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.093105359923079</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4359357432850148, 1.093105359923079)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5EAE60&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.321220860151939</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.56406426</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(61392860.35837106,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(61392860.35837106, -67108863.56406426, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5EAD10&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.025760504983672</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4359357432850148</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.798432018122687</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.4359357432850148, 4.798432018122687)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E090F6D0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>lognorm</t>
         </is>
       </c>
@@ -514,7 +1023,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EF880&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228C850&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -553,7 +1062,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EE560&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E24836D0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -592,7 +1101,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EDEA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D4CD0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -631,7 +1140,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EF430&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D5900&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -670,7 +1179,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EEF20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0A5D510&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -709,7 +1218,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EFA30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D4490&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -748,7 +1257,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EDCF0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0A5D810&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -787,7 +1296,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EF520&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D58D0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -826,7 +1335,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EE380&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0A5F220&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -865,7 +1374,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EF310&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0A5EC50&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -904,12 +1413,1023 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EFDC0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E096DC90&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03197341833632014</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2961363619214301</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2530011042164111</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(6.587270216793915,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(6.587270216793915, 0.2961363619214301, 0.2530011042164111)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2296650&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03242233683777656</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.3224503503164577</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.197163783270609</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.2802079209306346,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.2802079209306346, -0.32245035031645775, 2.197163783270609)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228D630&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03388190847538167</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.674820007112838</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5404984171171707</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.04557005271497228,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.04557005271497228, 1.6748200071128378, 0.5404984171171707)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22971C0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.036569911374831</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.469868964316521</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.640624510760793</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(4.2045847472568205, 20.110951961744206)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(4.2045847472568205, 20.110951961744206, 0.46986896431652103, 8.640624510760793)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22966B0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.09923933699970197</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.91993613223439</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5668367560358782</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(8.17980389638238,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(8.17980389638238, 1.91993613223439, 0.5668367560358782)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2294250&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1014408750119226</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.950300253776301</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5477918240699922</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.262435596055485,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.262435596055485, 1.9503002537763015, 0.5477918240699922)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2295C90&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1214696744776157</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.962721707968327</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6541615209429524</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.9627217079683272, 0.6541615209429524)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E241FA60&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1278398128351631</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-219.7256266530773</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.28440709436889</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1939.8963727950277,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1939.8963727950277, -219.7256266530773, 29.284407094368888)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22944F0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.428139789405332</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6096840951715163</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.353037612796811</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.6096840951715163, 1.353037612796811)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E095DF30&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.428139792860743</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-134217727.3903159</v>
+      </c>
+      <c r="D11" t="n">
+        <v>134217728</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(99197337.55793573,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(99197337.55793573, -134217727.3903159, 134217728.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228F940&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.706224489249103</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6096840951715163</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.277273492097082</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.6096840951715163, 5.277273492097082)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2297970&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01929646134471896</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4233147336186048</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.08600783161981</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(2.492912471436481, 11.89718606209575)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(2.492912471436481, 11.89718606209575, 0.42331473361860483, 10.086007831619813)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF879AE0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0197191115260691</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.735081382037637</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7786718685195961</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.020825764124525532,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.020825764124525532, 1.735081382037637, 0.7786718685195961)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF879C30&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02003903456664132</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6152067001874331</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.628407725384623</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.34304117426438036,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.34304117426438036, -0.6152067001874331, 2.6284077253846228)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D5420&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02027354536163845</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2451801486213516</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5034528599036405</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(3.8254629698332696,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(3.8254629698332696, 0.24518014862135157, 0.5034528599036405)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF87A080&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0442743076651033</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.110753092773963</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8581087583957858</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(9.454886291246755,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(9.454886291246755, 2.1107530927739626, 0.8581087583957858)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D5570&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.04656955037504711</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.066436704242994</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8041348052013577</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.2313377779568928,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.2313377779568928, 2.066436704242994, 0.8041348052013577)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D5360&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.05532262455439162</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.171121056763936</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9662377310347933</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(2.1711210567639356, 0.9662377310347933)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF4111E0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.05685094480928105</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-254.1079140451857</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.6079704771272</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1336.0710362309328,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1336.0710362309328, -254.10791404518568, 35.607970477127196)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF8795A0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4203118555104221</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-268435455.4830227</v>
+      </c>
+      <c r="D10" t="n">
+        <v>268435456</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(162280607.5912858,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(162280607.5912858, -268435455.48302272, 268435456.0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D56C0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4203118639862701</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.51697729104889</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.654143765715046</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.51697729104889, 1.6541437657150455)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D5390&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6192091338302946</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.51697729104889</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.015251598222662</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.51697729104889, 6.015251598222662)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF87B1C0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>#999999</t>
@@ -990,31 +2510,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01441979254017743</v>
+        <v>0.0131519833224373</v>
       </c>
       <c r="C2" t="n">
-        <v>1.66246767788381</v>
+        <v>0.3016889417523225</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5323247268512059</v>
+        <v>15210958.87662085</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.08283967216330779,)</t>
+          <t>(5.1615622052973675, 47562542.23512767)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.08283967216330779, 1.6624676778838097, 0.5323247268512059)</t>
+          <t>(5.1615622052973675, 47562542.23512767, 0.3016889417523225, 15210958.876620846)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED00A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E08AE4A0&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +2549,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01486125327347862</v>
+        <v>0.01315198570480131</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5728020687884418</v>
+        <v>0.3016836646283453</v>
       </c>
       <c r="D3" t="n">
-        <v>2.428661378881663</v>
+        <v>0.3198093139703789</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.24508998509783672,)</t>
+          <t>(5.161586769350038,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.24508998509783672, -0.5728020687884418, 2.4286613788816633)</t>
+          <t>(5.161586769350038, 0.3016836646283453, 0.31980931397037893)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519AF280&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF69DFC0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +2588,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01657021429743059</v>
+        <v>0.01491175954077188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1637190322288076</v>
+        <v>-0.2871126833194503</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2182072627643815</v>
+        <v>2.128624227226815</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(8.093586006455062,)</t>
+          <t>(0.31908211943899567,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(8.093586006455062, 0.16371903222880763, 0.21820726276438146)</t>
+          <t>(0.31908211943899567, -0.2871126833194503, 2.1286242272268145)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED21D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF69CF70&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +2627,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01702609742036463</v>
+        <v>0.01692477450238058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2024842421270472</v>
+        <v>1.62566616984444</v>
       </c>
       <c r="D5" t="n">
-        <v>52.76865471154208</v>
+        <v>0.5871955024113349</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(7.465778237348179, 220.6103302566314)</t>
+          <t>(0.02271500761332544,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(7.465778237348179, 220.6103302566314, 0.20248424212704724, 52.768654711542084)</t>
+          <t>(0.02271500761332544, 1.62566616984444, 0.5871955024113349)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED1810&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF69C970&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1146,31 +2666,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08795625053167797</v>
+        <v>0.06181726424067045</v>
       </c>
       <c r="C6" t="n">
-        <v>1.905485058143077</v>
+        <v>1.83508059646091</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5730169848898512</v>
+        <v>0.6024323985369336</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(13.58740970098124,)</t>
+          <t>(1.2129798554632774,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(13.58740970098124, 1.9054850581430767, 0.5730169848898512)</t>
+          <t>(1.2129798554632774, 1.8350805964609098, 0.6024323985369336)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED1B70&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E08AE740&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,31 +2705,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.110461598198169</v>
+        <v>0.08971952747580877</v>
       </c>
       <c r="C7" t="n">
-        <v>1.929798200697873</v>
+        <v>1.902779433152574</v>
       </c>
       <c r="D7" t="n">
-        <v>0.620398067361263</v>
+        <v>0.6390002041588636</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(8.765445476795128,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.9297982006978731, 0.620398067361263)</t>
+          <t>(8.765445476795128, 1.9027794331525738, 0.6390002041588636)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EEF50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF69DAE0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +2744,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1206569273291194</v>
+        <v>0.1089603053526477</v>
       </c>
       <c r="C8" t="n">
-        <v>-189.9395684766214</v>
+        <v>1.952406045268861</v>
       </c>
       <c r="D8" t="n">
-        <v>25.80032628632832</v>
+        <v>0.7292541638052618</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(1697.8857409488016,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1697.8857409488016, -189.93956847662145, 25.80032628632832)</t>
+          <t>(1.9524060452688612, 0.7292541638052618)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED1750&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E08AFDF0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,31 +2783,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1333047323846259</v>
+        <v>0.1148032133811369</v>
       </c>
       <c r="C9" t="n">
-        <v>1.898898759674947</v>
+        <v>-207.5996659289078</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5161852779043776</v>
+        <v>28.74011749782953</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1.2151747932344412,)</t>
+          <t>(1467.8290267849588,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1.2151747932344412, 1.8988987596749474, 0.5161852779043776)</t>
+          <t>(1467.8290267849588, -207.59966592890783, 28.74011749782953)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265E57E50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF69C370&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1302,17 +2822,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.559312416579798</v>
+        <v>0.9750277152817171</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5705270425810238</v>
+        <v>0.5695631597088855</v>
       </c>
       <c r="D10" t="n">
-        <v>4.246353803530516</v>
+        <v>1.382842885559976</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1321,12 +2841,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.5705270425810238, 4.246353803530516)</t>
+          <t>(0.5695631597088855, 1.3828428855599757)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265ED1990&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E08AF6A0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +2861,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.592383970355136</v>
+        <v>0.975027726530761</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5705270425810238</v>
+        <v>-134217727.4304368</v>
       </c>
       <c r="D11" t="n">
-        <v>1.359271158116849</v>
+        <v>134217728</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(97059276.11357214,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.5705270425810238, 1.3592711581168493)</t>
+          <t>(97059276.11357214, -134217727.43043683, 134217727.99999999)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265E57C40&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E08AEA40&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1380,31 +2900,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.592383977461529</v>
+        <v>1.331078015602589</v>
       </c>
       <c r="C12" t="n">
-        <v>-134217727.429473</v>
+        <v>0.5695631597088855</v>
       </c>
       <c r="D12" t="n">
-        <v>134217728</v>
+        <v>5.73788152110272</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(98742424.15823759,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(98742424.15823759, -134217727.42947295, 134217727.99999999)</t>
+          <t>(0.5695631597088855, 5.73788152110272)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2519EE980&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E08AE4D0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1494,33 +3014,32 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06031099908761835</v>
+        <v>0.009089038485562001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3702468717950995</v>
+        <v>-0.2786404794655237</v>
       </c>
       <c r="D2" t="n">
-        <v>12.09880781166575</v>
+        <v>17.64848002492909</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(3.0696341523923873, 18.03174805535624)</t>
+          <t>(5.668651312997252, 36.84376677771529)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(3.0696341523923873, 18.03174805535624, 0.3702468717950995, 12.098807811665747)</t>
+          <t>(5.668651312997252, 36.84376677771529, -0.2786404794655237, 17.64848002492909)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603E3E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF481630&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>#e41a1c</t>
@@ -1534,33 +3053,32 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06434909761360254</v>
+        <v>0.01062544693138977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2490876161784235</v>
+        <v>0.1355531628223557</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4488506853752563</v>
+        <v>0.468122391348849</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(4.191395680815244,)</t>
+          <t>(4.137153242815607,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(4.191395680815244, 0.2490876161784235, 0.4488506853752563)</t>
+          <t>(4.137153242815607, 0.13555316282235572, 0.46812239134884903)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603C100&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2113340&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>#e41a1c</t>
@@ -1574,33 +3092,32 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06617459194526396</v>
+        <v>0.0135137417704456</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5765556195680427</v>
+        <v>-0.7247891058778191</v>
       </c>
       <c r="D4" t="n">
-        <v>2.563881028854636</v>
+        <v>2.648652952768454</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.3308192542769732,)</t>
+          <t>(0.3314040758794174,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.3308192542769732, -0.5765556195680427, 2.5638810288546363)</t>
+          <t>(0.3314040758794174, -0.7247891058778191, 2.648652952768454)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603C0D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2112260&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>#377eb8</t>
@@ -1614,33 +3131,32 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06629061256086759</v>
+        <v>0.01498738691120657</v>
       </c>
       <c r="C5" t="n">
-        <v>1.72426268279082</v>
+        <v>1.649190923476477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7361793734904614</v>
+        <v>0.7603022346852174</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.029444838682095208,)</t>
+          <t>(0.0232647715482244,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.029444838682095208, 1.7242626827908198, 0.7361793734904614)</t>
+          <t>(0.0232647715482244, 1.6491909234764772, 0.7603022346852174)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603E020&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2113580&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>#4daf4a</t>
@@ -1650,37 +3166,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07771501503093088</v>
+        <v>0.04452220554856742</v>
       </c>
       <c r="C6" t="n">
-        <v>2.081854932486675</v>
+        <v>2.027012589607733</v>
       </c>
       <c r="D6" t="n">
-        <v>0.768089005978486</v>
+        <v>0.8517034842701217</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.2851081470403316,)</t>
+          <t>(12.044578334931892,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.2851081470403316, 2.0818549324866753, 0.768089005978486)</t>
+          <t>(12.044578334931892, 2.0270125896077333, 0.8517034842701217)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603C220&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2111120&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>#984ea3</t>
@@ -1690,37 +3205,36 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08777111843629594</v>
+        <v>0.04691766136246491</v>
       </c>
       <c r="C7" t="n">
-        <v>2.078517278176234</v>
+        <v>2.072251114979024</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8089017520843224</v>
+        <v>0.9389066139220337</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(9.99551727604428,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(9.99551727604428, 2.0785172781762338, 0.8089017520843224)</t>
+          <t>(2.072251114979024, 0.9389066139220337)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603DA20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E21105B0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>#ff7f00</t>
@@ -1730,37 +3244,36 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09472534801725532</v>
+        <v>0.04908728463643926</v>
       </c>
       <c r="C8" t="n">
-        <v>2.130398227647176</v>
+        <v>-300.230779987913</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9049766095068721</v>
+        <v>40.41808674747384</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1771.7514995012198,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(2.1303982276471762, 0.9049766095068721)</t>
+          <t>(1771.7514995012198, -300.230779987913, 40.418086747473836)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603E440&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF481780&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>#ffff33</t>
@@ -1770,37 +3283,36 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09923467725215022</v>
+        <v>0.06713161347654972</v>
       </c>
       <c r="C9" t="n">
-        <v>-243.2966342862283</v>
+        <v>2.042467167160197</v>
       </c>
       <c r="D9" t="n">
-        <v>34.05326278293694</v>
+        <v>0.7963451370164751</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1349.66584617045,)</t>
+          <t>(1.2777973617250962,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1349.66584617045, -243.29663428622825, 34.05326278293694)</t>
+          <t>(1.2777973617250962, 2.042467167160197, 0.7963451370164751)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265FB71C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E21110F0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>#a65628</t>
@@ -1810,37 +3322,36 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6498388308334304</v>
+        <v>0.45264828405258</v>
       </c>
       <c r="C10" t="n">
-        <v>-268435455.5583779</v>
+        <v>0.4027550833332787</v>
       </c>
       <c r="D10" t="n">
-        <v>268435456</v>
+        <v>1.669496031645745</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(158952660.4568313,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(158952660.4568313, -268435455.5583779, 268435455.99999997)</t>
+          <t>(0.4027550833332787, 1.6694960316457454)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603CF70&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2112920&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>#f781bf</t>
@@ -1850,37 +3361,36 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6498388374534155</v>
+        <v>0.4526482881203154</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4416221041403858</v>
+        <v>-134217727.5972449</v>
       </c>
       <c r="D11" t="n">
-        <v>1.68877612350679</v>
+        <v>134217728</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(80394158.69702712,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.44162210414038583, 1.6887761235067904)</t>
+          <t>(80394158.69702712, -134217727.59724492, 134217728.0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603DF30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2113A00&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>#999999</t>
@@ -1894,13 +3404,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7379464968720317</v>
+        <v>0.7936073489868968</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4416221041403858</v>
+        <v>0.4027550833332787</v>
       </c>
       <c r="D12" t="n">
-        <v>5.599001466796573</v>
+        <v>8.153001338433802</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,18 +3419,3017 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.44162210414038583, 5.599001466796573)</t>
+          <t>(0.4027550833332787, 8.153001338433802)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26603D150&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2112800&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04495330750586619</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4488404907417207</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3220332500852002</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(3.121459515515785,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(3.121459515515785, 0.4488404907417207, 0.32203325008520023)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A28F0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04654660637898022</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2346075245586279</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.097229225436557</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.461610782740705,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.461610782740705, 0.23460752455862788, 1.0972292254365565)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A2C80&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06363338445919314</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.17776983945013</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4114641629090438</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(-0.08851064805004422,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(-0.08851064805004422, 1.1777698394501304, 0.41146416290904375)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A1600&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07617964664001077</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4662748190440215</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.83930289983218</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(2.38846002260832, 11.662084347573144)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(2.38846002260832, 11.662084347573144, 0.46627481904402146, 5.83930289983218)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A2B60&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3029106774064728</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.379413112052507</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4606418980085826</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(5.315982437770872,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(5.315982437770872, 1.3794131120525066, 0.4606418980085826)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A3730&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4083976028535241</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.386705436037789</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4668157751279118</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.1966026961115923,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.1966026961115923, 1.3867054360377886, 0.46681577512791184)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A2530&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4188854928004807</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.454055628668539</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5815471162002827</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.4540556286685387, 0.5815471162002827)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A12A0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.440462432786077</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-147.8457158794249</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.920521748122</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1257.6910613571522,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1257.6910613571522, -147.84571587942492, 20.920521748122)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A2410&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.627922052512859</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-134217727.523958</v>
+      </c>
+      <c r="D10" t="n">
+        <v>134217728</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(137235023.08557484,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(137235023.08557484, -134217727.52395804, 134217727.99999999)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A2350&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.627922088788949</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4760419545686414</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9780136740998973</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.4760419545686414, 0.9780136740998973)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A1FF0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.516506289735634</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4760419545686414</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.339578162206883</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.4760419545686414, 4.339578162206883)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A1420&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.02485490218842542</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.4693717552486706</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.361731072444277</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.2974454359232428,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.2974454359232428, -0.46937175524867064, 2.361731072444277)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B31F0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02498434211385221</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.668586593313082</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6147089907549459</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.04301428323821056,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.04301428323821056, 1.6685865933130821, 0.6147089907549459)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B3A30&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02538959119953431</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2421710543871149</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63982451.59937489</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(5.52387881042103, 201187095.05039215)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(5.52387881042103, 201187095.05039215, 0.2421710543871149, 63982451.59937489)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B2FB0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02538960081030988</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.242170197823979</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3180260264495458</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(5.523861670270135,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(5.523861670270135, 0.24217019782397903, 0.3180260264495458)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B2DA0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.08261096423555883</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.951260630849612</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.654682571664862</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(8.678470228810006,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(8.678470228810006, 1.9512606308496117, 0.654682571664862)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B2950&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.09788540428799131</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.907834933728809</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6115555869799909</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.1927965727538128,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.1927965727538128, 1.9078349337288092, 0.6115555869799909)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B12D0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1001014023958132</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.99890063044752</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.746569484232702</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.99890063044752, 0.746569484232702)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23060E0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1027094498007397</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-273.8226739247666</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.79520746636626</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2220.8443604261975,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2220.8443604261975, -273.8226739247666, 35.795207466366264)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B2860&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.044791681335278</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4885900328105673</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.510310597636953</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.48859003281056734, 1.5103105976369529)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B2BC0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.044791684503921</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-134217727.51141</v>
+      </c>
+      <c r="D11" t="n">
+        <v>134217728</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(88867633.61073059,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(88867633.61073059, -134217727.51140997, 134217728.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B1780&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.091373082148261</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4885900328105673</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.896038239859902</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.48859003281056734, 4.896038239859902)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E22B39A0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.008010306363265898</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.01334213834979998</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41620028.07653844</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(4.895396351221116, 88994640.09904583)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(4.895396351221116, 88994640.09904583, -0.013342138349799979, 41620028.07653844)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D5510&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.00801041694563469</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.0133333853081113</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.467670532853793</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(4.895360062149454,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(4.895360062149454, -0.013333385308111298, 0.467670532853793)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D45B0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.009832975671043055</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.9992192250649222</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.123145647924693</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.3092235613722765,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.3092235613722765, -0.9992192250649222, 3.123145647924693)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D4580&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0106753168565542</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.819683702239038</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8435485320728546</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(0.03971043259158195,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(0.03971043259158195, 1.8196837022390384, 0.8435485320728546)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D44F0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02813341071821099</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.167330555353217</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8582173898016461</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.2409025097040067,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.2409025097040067, 2.167330555353217, 0.8582173898016461)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D4190&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03329342339236733</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.218272641848181</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9133123849578144</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(9.73762038080644,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(9.73762038080644, 2.218272641848181, 0.9133123849578144)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D53F0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.03680275493808995</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.276082527604899</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.026287291050906</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(2.2760825276048995, 1.0262872910509064)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D5690&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.03844830388346386</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-286.4710540201897</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39.83469023021021</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1406.4158164841574,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1406.4158164841574, -286.47105402018974, 39.83469023021021)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2483730&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4742213630341985</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3129008954289463</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.963181632175953</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.31290089542894634, 1.9631816321759532)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D5000&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.474221369099504</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-268435455.6870991</v>
+      </c>
+      <c r="D11" t="n">
+        <v>268435456</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(136734907.0311927,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(136734907.0311927, -268435455.6870991, 268435455.99999997)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D5090&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5140072686895655</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3129008954289463</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.319448967770971</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.31290089542894634, 6.319448967770971)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D4A00&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03800709190771304</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5890810449274491</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2717195506925576</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(2.7986436038187783,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(2.7986436038187783, 0.5890810449274491, 0.2717195506925576)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228EBF0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04380530853841883</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6037044395698892</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.257865306365083</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(2.2951233533285924, 16.915141642756204)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(2.2951233533285924, 16.915141642756204, 0.6037044395698892, 6.257865306365083)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228FB20&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0696824731837863</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4017974782537363</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8492483930977617</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.4705064692102419,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.4705064692102419, 0.4017974782537363, 0.8492483930977617)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228F190&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09627305579578328</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.130973349637893</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3247350303329187</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.09030870639378738,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.09030870639378738, 1.1309733496378933, 0.32473503033291873)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228C820&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3884477720506509</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.289881903367453</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3568227576362348</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(5.015611213652496,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(5.015611213652496, 1.2898819033674531, 0.35682275763623483)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228C2E0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.399746797215882</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.317485800056835</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3706537307505819</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.207088827999356,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.207088827999356, 1.317485800056835, 0.3706537307505819)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228EDD0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5104096072879316</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.349525037872584</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4632959104702946</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.3495250378725845, 0.46329591047029456)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228E620&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5396655843037141</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-163.5785059580973</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.633513850207</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2046.575713123298,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2046.575713123298, -163.5785059580973, 21.633513850206995)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228C970&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.172257624014923</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-67108863.38804161</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(90986848.28936869,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(90986848.28936869, -67108863.38804161, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228DF00&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.17225762417485</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6119583945072942</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7375666433652903</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.6119583945072942, 0.7375666433652903)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228EAA0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.862828873070233</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6119583945072942</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.312558872089105</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.6119583945072942, 3.312558872089105)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E228F130&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.02847729175492291</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.643837884710523</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5565194647527922</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.05894656710405792,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.05894656710405792, 1.643837884710523, 0.5565194647527922)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38A6EF0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0285921619138413</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.4629813599635822</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.310278454719719</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.2730149627895372,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.2730149627895372, -0.4629813599635822, 2.3102784547197195)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38A5BD0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03038974943602721</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1932778396337477</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2524669203421746</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(6.898439364927391,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(6.898439364927391, 0.19327783963374773, 0.2524669203421746)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38A7CA0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03052397940709252</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1999815738557479</v>
+      </c>
+      <c r="D5" t="n">
+        <v>656373.4779855721</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(6.829930749116112, 2583652.1831899844)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(6.829930749116112, 2583652.1831899844, 0.19998157385574786, 656373.4779855721)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38A72E0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.08632140953196737</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.903898424689048</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5550421288722778</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.2408659784895395,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.2408659784895395, 1.9038984246890482, 0.5550421288722778)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38A6B00&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.08777217683519892</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.898017000690729</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.595406453866282</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(10.062719936458304,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(10.062719936458304, 1.898017000690729, 0.595406453866282)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38A7F40&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1193282445460727</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.934905224352899</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6648177313182746</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.9349052243528992, 0.6648177313182746)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38A5B10&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1285221813169548</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-247.5542151240235</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32.34017911014561</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2241.1106314415283,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2241.1106314415283, -247.55421512402347, 32.34017911014561)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38A7F70&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.466871795043986</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-536870911.4840758</v>
+      </c>
+      <c r="D10" t="n">
+        <v>536870912</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(378349595.42591006,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(378349595.42591006, -536870911.48407584, 536870912.0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38A6200&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.46687182730745</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5159241665191365</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.418981057833763</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.5159241665191365, 1.4189810578337627)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38A61A0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.508221960641557</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5159241665191365</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.668439844441435</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.5159241665191365, 4.668439844441435)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38A7AF0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01195072052282025</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4208642779648839</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.640136518318888</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(2.385498336694175, 9.24931115329628)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(2.385498336694175, 9.24931115329628, 0.4208642779648839, 8.640136518318888)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A1720&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01732728271157745</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2835743347641414</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5328350187607751</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(3.5826389018797764,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(3.5826389018797764, 0.2835743347641414, 0.5328350187607751)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A3610&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01961872770175961</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.5994352814459389</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.628241737416916</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.3497316281798775,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.3497316281798775, -0.5994352814459389, 2.628241737416916)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37247C0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02026946481218341</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.749325789513406</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7950089613715665</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(0.025369594313416934,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(0.025369594313416934, 1.749325789513406, 0.7950089613715665)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3724850&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05167317749118611</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.09013545597756</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8282905897266579</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.2529914140508565,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.2529914140508565, 2.09013545597756, 0.8282905897266579)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D8610&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0531562854244265</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.153371222416865</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9141835537184635</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(15.53108738285795,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(15.53108738285795, 2.1533712224168653, 0.9141835537184635)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A26E0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.05829636115772156</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.192525906454134</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9794871339702073</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(2.1925259064541343, 0.9794871339702073)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E38C7490&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.06249017097042484</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-241.8692612479537</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.39885426570122</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1206.7170019520954,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1206.7170019520954, -241.86926124795366, 34.39885426570122)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A1E40&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4214689436641432</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-536870911.5474138</v>
+      </c>
+      <c r="D10" t="n">
+        <v>536870912</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(308557189.0323158,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(308557189.0323158, -536870911.5474138, 536870912.0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E37A3100&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4214689724147767</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4525861849790163</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.739939721475118</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.45258618497901626, 1.739939721475118)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23DBCA0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4776599883786708</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4525861849790163</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.418851351257278</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.45258618497901626, 5.4188513512572785)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3724070&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>#999999</t>
